--- a/output/italy.xlsx
+++ b/output/italy.xlsx
@@ -6,22 +6,27 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Mar-Apr" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1-10 Feb" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="11-20 Feb" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="21-29 Feb" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="1-10 Mar" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="11-20 Mar" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="21-31 Mar" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="1-10 Apr" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="11-20 Apr" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="21-30 Apr" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="01Mar-30Apr" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="1Feb-4Feb" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="5Feb-11Feb" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="12Feb-18Feb" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="19Feb-25Feb" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="26Feb-3Mar" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="4Mar-10Mar" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="11Mar-17Mar" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="18Mar-24Mar" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="25Mar-31Mar" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="1Apr-7Apr" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="8Apr-14Apr" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="15Apr-21Apr" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="22Apr-28Apr" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="29Apr-30Apr" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t xml:space="preserve">Sex</t>
   </si>
@@ -59,7 +64,7 @@
     <t xml:space="preserve">153370</t>
   </si>
   <si>
-    <t xml:space="preserve">less than 60</t>
+    <t xml:space="preserve">Less than 60</t>
   </si>
   <si>
     <t xml:space="preserve">8107</t>
@@ -131,484 +136,739 @@
     <t xml:space="preserve">27772</t>
   </si>
   <si>
-    <t xml:space="preserve">19113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3550</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1517</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8942</t>
-  </si>
-  <si>
-    <t xml:space="preserve">396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8390</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5435</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10504</t>
+    <t xml:space="preserve">7775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15046</t>
   </si>
   <si>
     <t xml:space="preserve">800</t>
   </si>
   <si>
-    <t xml:space="preserve">1426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4870</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3623</t>
+    <t xml:space="preserve">1545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626</t>
   </si>
 </sst>
 </file>
@@ -1545,22 +1805,22 @@
         <v>178</v>
       </c>
       <c r="D2" t="n">
-        <v>1917</v>
+        <v>9440</v>
       </c>
       <c r="E2" t="n">
-        <v>1437</v>
+        <v>8625</v>
       </c>
       <c r="F2" t="n">
-        <v>2285</v>
+        <v>10146</v>
       </c>
       <c r="G2" t="n">
-        <v>11.5</v>
+        <v>72.3</v>
       </c>
       <c r="H2" t="n">
-        <v>8.4</v>
+        <v>62.2</v>
       </c>
       <c r="I2" t="n">
-        <v>14.1</v>
+        <v>82.1</v>
       </c>
     </row>
     <row r="3">
@@ -1574,22 +1834,22 @@
         <v>179</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="E3" t="n">
-        <v>-193</v>
+        <v>122</v>
       </c>
       <c r="F3" t="n">
-        <v>129</v>
+        <v>364</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2</v>
+        <v>29.5</v>
       </c>
       <c r="H3" t="n">
-        <v>-15</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>13.4</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="4">
@@ -1603,22 +1863,22 @@
         <v>180</v>
       </c>
       <c r="D4" t="n">
-        <v>204</v>
+        <v>890</v>
       </c>
       <c r="E4" t="n">
-        <v>-20</v>
+        <v>569</v>
       </c>
       <c r="F4" t="n">
-        <v>387</v>
+        <v>1142</v>
       </c>
       <c r="G4" t="n">
-        <v>11.4</v>
+        <v>62.7</v>
       </c>
       <c r="H4" t="n">
-        <v>-1</v>
+        <v>32.7</v>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="5">
@@ -1632,22 +1892,22 @@
         <v>181</v>
       </c>
       <c r="D5" t="n">
-        <v>254</v>
+        <v>2185</v>
       </c>
       <c r="E5" t="n">
-        <v>86</v>
+        <v>1915</v>
       </c>
       <c r="F5" t="n">
-        <v>384</v>
+        <v>2375</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>90.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6</v>
+        <v>71.1</v>
       </c>
       <c r="I5" t="n">
-        <v>12.6</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="6">
@@ -1661,22 +1921,22 @@
         <v>182</v>
       </c>
       <c r="D6" t="n">
-        <v>868</v>
+        <v>4025</v>
       </c>
       <c r="E6" t="n">
-        <v>492</v>
+        <v>3654</v>
       </c>
       <c r="F6" t="n">
-        <v>1165</v>
+        <v>4301</v>
       </c>
       <c r="G6" t="n">
-        <v>13.8</v>
+        <v>79.8</v>
       </c>
       <c r="H6" t="n">
-        <v>7.4</v>
+        <v>67.5</v>
       </c>
       <c r="I6" t="n">
-        <v>19.5</v>
+        <v>90.2</v>
       </c>
     </row>
     <row r="7">
@@ -1690,22 +1950,22 @@
         <v>183</v>
       </c>
       <c r="D7" t="n">
-        <v>890</v>
+        <v>2260</v>
       </c>
       <c r="E7" t="n">
-        <v>566</v>
+        <v>1973</v>
       </c>
       <c r="F7" t="n">
-        <v>1158</v>
+        <v>2494</v>
       </c>
       <c r="G7" t="n">
-        <v>20.9</v>
+        <v>65.8</v>
       </c>
       <c r="H7" t="n">
-        <v>12.4</v>
+        <v>53</v>
       </c>
       <c r="I7" t="n">
-        <v>29.1</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="8">
@@ -1719,22 +1979,22 @@
         <v>184</v>
       </c>
       <c r="D8" t="n">
-        <v>650</v>
+        <v>5128</v>
       </c>
       <c r="E8" t="n">
-        <v>261</v>
+        <v>4625</v>
       </c>
       <c r="F8" t="n">
-        <v>991</v>
+        <v>5523</v>
       </c>
       <c r="G8" t="n">
-        <v>8.2</v>
+        <v>82.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>68.9</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1748,22 +2008,22 @@
         <v>185</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="E9" t="n">
-        <v>-153</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>129</v>
+        <v>328</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>39.2</v>
       </c>
       <c r="H9" t="n">
-        <v>-18.2</v>
+        <v>5.8</v>
       </c>
       <c r="I9" t="n">
-        <v>23.2</v>
+        <v>75.1</v>
       </c>
     </row>
     <row r="10">
@@ -1777,22 +2037,22 @@
         <v>186</v>
       </c>
       <c r="D10" t="n">
-        <v>149</v>
+        <v>728</v>
       </c>
       <c r="E10" t="n">
-        <v>-3</v>
+        <v>516</v>
       </c>
       <c r="F10" t="n">
-        <v>261</v>
+        <v>866</v>
       </c>
       <c r="G10" t="n">
-        <v>13.5</v>
+        <v>83.6</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2</v>
+        <v>47.7</v>
       </c>
       <c r="I10" t="n">
-        <v>26.3</v>
+        <v>118.3</v>
       </c>
     </row>
     <row r="11">
@@ -1806,22 +2066,22 @@
         <v>187</v>
       </c>
       <c r="D11" t="n">
-        <v>158</v>
+        <v>1496</v>
       </c>
       <c r="E11" t="n">
-        <v>-62</v>
+        <v>1316</v>
       </c>
       <c r="F11" t="n">
-        <v>344</v>
+        <v>1607</v>
       </c>
       <c r="G11" t="n">
-        <v>8.5</v>
+        <v>104.8</v>
       </c>
       <c r="H11" t="n">
-        <v>-3</v>
+        <v>81.9</v>
       </c>
       <c r="I11" t="n">
-        <v>20.6</v>
+        <v>122.1</v>
       </c>
     </row>
     <row r="12">
@@ -1835,22 +2095,22 @@
         <v>188</v>
       </c>
       <c r="D12" t="n">
-        <v>355</v>
+        <v>2176</v>
       </c>
       <c r="E12" t="n">
-        <v>124</v>
+        <v>2100</v>
       </c>
       <c r="F12" t="n">
-        <v>546</v>
+        <v>2194</v>
       </c>
       <c r="G12" t="n">
-        <v>11.9</v>
+        <v>91.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>85.8</v>
       </c>
       <c r="I12" t="n">
-        <v>19.5</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="13">
@@ -1864,22 +2124,22 @@
         <v>189</v>
       </c>
       <c r="D13" t="n">
-        <v>257</v>
+        <v>688</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>522</v>
       </c>
       <c r="F13" t="n">
-        <v>397</v>
+        <v>763</v>
       </c>
       <c r="G13" t="n">
-        <v>20.4</v>
+        <v>65.3</v>
       </c>
       <c r="H13" t="n">
-        <v>6.3</v>
+        <v>42.8</v>
       </c>
       <c r="I13" t="n">
-        <v>35.4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1893,22 +2153,22 @@
         <v>190</v>
       </c>
       <c r="D14" t="n">
-        <v>1337</v>
+        <v>4340</v>
       </c>
       <c r="E14" t="n">
-        <v>971</v>
+        <v>3900</v>
       </c>
       <c r="F14" t="n">
-        <v>1619</v>
+        <v>4718</v>
       </c>
       <c r="G14" t="n">
-        <v>15.6</v>
+        <v>63.6</v>
       </c>
       <c r="H14" t="n">
-        <v>10.9</v>
+        <v>53.7</v>
       </c>
       <c r="I14" t="n">
-        <v>19.5</v>
+        <v>73.2</v>
       </c>
     </row>
     <row r="15">
@@ -1922,22 +2182,22 @@
         <v>191</v>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>-42</v>
       </c>
       <c r="F15" t="n">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="G15" t="n">
-        <v>13.3</v>
+        <v>21.9</v>
       </c>
       <c r="H15" t="n">
-        <v>2.5</v>
+        <v>-10.2</v>
       </c>
       <c r="I15" t="n">
-        <v>24.6</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="16">
@@ -1951,22 +2211,22 @@
         <v>192</v>
       </c>
       <c r="D16" t="n">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F16" t="n">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="G16" t="n">
-        <v>19.6</v>
+        <v>35.4</v>
       </c>
       <c r="H16" t="n">
-        <v>4.9</v>
+        <v>16.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.1</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="17">
@@ -1980,22 +2240,22 @@
         <v>193</v>
       </c>
       <c r="D17" t="n">
-        <v>168</v>
+        <v>710</v>
       </c>
       <c r="E17" t="n">
-        <v>64</v>
+        <v>591</v>
       </c>
       <c r="F17" t="n">
-        <v>254</v>
+        <v>786</v>
       </c>
       <c r="G17" t="n">
-        <v>13.5</v>
+        <v>72.7</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>53.9</v>
       </c>
       <c r="I17" t="n">
-        <v>21.9</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="18">
@@ -2009,22 +2269,22 @@
         <v>194</v>
       </c>
       <c r="D18" t="n">
-        <v>579</v>
+        <v>1871</v>
       </c>
       <c r="E18" t="n">
-        <v>117</v>
+        <v>1524</v>
       </c>
       <c r="F18" t="n">
-        <v>951</v>
+        <v>2148</v>
       </c>
       <c r="G18" t="n">
-        <v>17.9</v>
+        <v>70.6</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>50.8</v>
       </c>
       <c r="I18" t="n">
-        <v>33.2</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="19">
@@ -2038,22 +2298,2847 @@
         <v>195</v>
       </c>
       <c r="D19" t="n">
-        <v>700</v>
+        <v>1599</v>
       </c>
       <c r="E19" t="n">
-        <v>540</v>
+        <v>1362</v>
       </c>
       <c r="F19" t="n">
-        <v>833</v>
+        <v>1765</v>
       </c>
       <c r="G19" t="n">
-        <v>23.9</v>
+        <v>67.9</v>
       </c>
       <c r="H19" t="n">
-        <v>17.5</v>
+        <v>52.5</v>
       </c>
       <c r="I19" t="n">
-        <v>29.9</v>
+        <v>80.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7076</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6144</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7919</v>
+      </c>
+      <c r="G2" t="n">
+        <v>58.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>69.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" t="n">
+        <v>164</v>
+      </c>
+      <c r="E3" t="n">
+        <v>49</v>
+      </c>
+      <c r="F3" t="n">
+        <v>262</v>
+      </c>
+      <c r="G3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="n">
+        <v>607</v>
+      </c>
+      <c r="E4" t="n">
+        <v>335</v>
+      </c>
+      <c r="F4" t="n">
+        <v>825</v>
+      </c>
+      <c r="G4" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1427</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1210</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1588</v>
+      </c>
+      <c r="G5" t="n">
+        <v>62.8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3067</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2763</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3309</v>
+      </c>
+      <c r="G6" t="n">
+        <v>64.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1968</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1750</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2149</v>
+      </c>
+      <c r="G7" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>71.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3528</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3083</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3837</v>
+      </c>
+      <c r="G8" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>49.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" t="n">
+        <v>145</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>237</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" t="n">
+        <v>490</v>
+      </c>
+      <c r="E10" t="n">
+        <v>310</v>
+      </c>
+      <c r="F10" t="n">
+        <v>617</v>
+      </c>
+      <c r="G10" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="n">
+        <v>929</v>
+      </c>
+      <c r="E11" t="n">
+        <v>767</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1038</v>
+      </c>
+      <c r="G11" t="n">
+        <v>68.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1564</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1431</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1636</v>
+      </c>
+      <c r="G12" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>59.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" t="n">
+        <v>538</v>
+      </c>
+      <c r="E13" t="n">
+        <v>388</v>
+      </c>
+      <c r="F13" t="n">
+        <v>633</v>
+      </c>
+      <c r="G13" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3580</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3159</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3922</v>
+      </c>
+      <c r="G14" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="I14" t="n">
+        <v>65.6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" t="n">
+        <v>39</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F15" t="n">
+        <v>101</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" t="n">
+        <v>131</v>
+      </c>
+      <c r="E16" t="n">
+        <v>62</v>
+      </c>
+      <c r="F16" t="n">
+        <v>182</v>
+      </c>
+      <c r="G16" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="n">
+        <v>514</v>
+      </c>
+      <c r="E17" t="n">
+        <v>346</v>
+      </c>
+      <c r="F17" t="n">
+        <v>638</v>
+      </c>
+      <c r="G17" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1533</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1162</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1832</v>
+      </c>
+      <c r="G18" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>41.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1453</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1264</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1582</v>
+      </c>
+      <c r="G19" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5140</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4277</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5876</v>
+      </c>
+      <c r="G2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-51</v>
+      </c>
+      <c r="F3" t="n">
+        <v>176</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="n">
+        <v>415</v>
+      </c>
+      <c r="E4" t="n">
+        <v>176</v>
+      </c>
+      <c r="F4" t="n">
+        <v>613</v>
+      </c>
+      <c r="G4" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="n">
+        <v>897</v>
+      </c>
+      <c r="E5" t="n">
+        <v>753</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1007</v>
+      </c>
+      <c r="G5" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2263</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2436</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1606</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1287</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1871</v>
+      </c>
+      <c r="G7" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2323</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2044</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2540</v>
+      </c>
+      <c r="G8" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="n">
+        <v>72</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-53</v>
+      </c>
+      <c r="F9" t="n">
+        <v>166</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-8.3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>40.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" t="n">
+        <v>339</v>
+      </c>
+      <c r="E10" t="n">
+        <v>197</v>
+      </c>
+      <c r="F10" t="n">
+        <v>450</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I10" t="n">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" t="n">
+        <v>592</v>
+      </c>
+      <c r="E11" t="n">
+        <v>428</v>
+      </c>
+      <c r="F11" t="n">
+        <v>733</v>
+      </c>
+      <c r="G11" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E12" t="n">
+        <v>887</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1114</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" t="n">
+        <v>414</v>
+      </c>
+      <c r="E13" t="n">
+        <v>234</v>
+      </c>
+      <c r="F13" t="n">
+        <v>551</v>
+      </c>
+      <c r="G13" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2844</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2479</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3161</v>
+      </c>
+      <c r="G14" t="n">
+        <v>44</v>
+      </c>
+      <c r="H14" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-36</v>
+      </c>
+      <c r="F15" t="n">
+        <v>63</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" t="n">
+        <v>99</v>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" t="n">
+        <v>147</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" t="n">
+        <v>326</v>
+      </c>
+      <c r="E17" t="n">
+        <v>152</v>
+      </c>
+      <c r="F17" t="n">
+        <v>457</v>
+      </c>
+      <c r="G17" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1261</v>
+      </c>
+      <c r="E18" t="n">
+        <v>868</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1580</v>
+      </c>
+      <c r="G18" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1215</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1068</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1313</v>
+      </c>
+      <c r="G19" t="n">
+        <v>54</v>
+      </c>
+      <c r="H19" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2927</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2320</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3433</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-9</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-143</v>
+      </c>
+      <c r="F3" t="n">
+        <v>89</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="n">
+        <v>234</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>417</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="n">
+        <v>427</v>
+      </c>
+      <c r="E5" t="n">
+        <v>228</v>
+      </c>
+      <c r="F5" t="n">
+        <v>571</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1342</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1094</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1549</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1039</v>
+      </c>
+      <c r="E7" t="n">
+        <v>661</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1339</v>
+      </c>
+      <c r="G7" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1112</v>
+      </c>
+      <c r="E8" t="n">
+        <v>885</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1298</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-113</v>
+      </c>
+      <c r="F9" t="n">
+        <v>86</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" t="n">
+        <v>158</v>
+      </c>
+      <c r="E10" t="n">
+        <v>47</v>
+      </c>
+      <c r="F10" t="n">
+        <v>244</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="n">
+        <v>277</v>
+      </c>
+      <c r="E11" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>440</v>
+      </c>
+      <c r="G11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>518</v>
+      </c>
+      <c r="E12" t="n">
+        <v>325</v>
+      </c>
+      <c r="F12" t="n">
+        <v>673</v>
+      </c>
+      <c r="G12" t="n">
+        <v>24</v>
+      </c>
+      <c r="H12" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" t="n">
+        <v>276</v>
+      </c>
+      <c r="E13" t="n">
+        <v>93</v>
+      </c>
+      <c r="F13" t="n">
+        <v>423</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1850</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1544</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2081</v>
+      </c>
+      <c r="G14" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-28</v>
+      </c>
+      <c r="F15" t="n">
+        <v>52</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-8.2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="n">
+        <v>97</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24</v>
+      </c>
+      <c r="F16" t="n">
+        <v>160</v>
+      </c>
+      <c r="G16" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>38.2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="n">
+        <v>176</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>300</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" t="n">
+        <v>857</v>
+      </c>
+      <c r="E18" t="n">
+        <v>500</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1150</v>
+      </c>
+      <c r="G18" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>18</v>
+      </c>
+      <c r="I18" t="n">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" t="n">
+        <v>778</v>
+      </c>
+      <c r="E19" t="n">
+        <v>653</v>
+      </c>
+      <c r="F19" t="n">
+        <v>860</v>
+      </c>
+      <c r="G19" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="I19" t="n">
+        <v>41.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1408</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1040</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1692</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-137</v>
+      </c>
+      <c r="F3" t="n">
+        <v>87</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" t="n">
+        <v>138</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-23</v>
+      </c>
+      <c r="F4" t="n">
+        <v>269</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" t="n">
+        <v>177</v>
+      </c>
+      <c r="E5" t="n">
+        <v>46</v>
+      </c>
+      <c r="F5" t="n">
+        <v>275</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" t="n">
+        <v>641</v>
+      </c>
+      <c r="E6" t="n">
+        <v>386</v>
+      </c>
+      <c r="F6" t="n">
+        <v>849</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" t="n">
+        <v>652</v>
+      </c>
+      <c r="E7" t="n">
+        <v>405</v>
+      </c>
+      <c r="F7" t="n">
+        <v>857</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="n">
+        <v>474</v>
+      </c>
+      <c r="E8" t="n">
+        <v>197</v>
+      </c>
+      <c r="F8" t="n">
+        <v>714</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" t="n">
+        <v>19</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-112</v>
+      </c>
+      <c r="F9" t="n">
+        <v>92</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D10" t="n">
+        <v>102</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>183</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="n">
+        <v>112</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F11" t="n">
+        <v>246</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D12" t="n">
+        <v>258</v>
+      </c>
+      <c r="E12" t="n">
+        <v>83</v>
+      </c>
+      <c r="F12" t="n">
+        <v>403</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" t="n">
+        <v>187</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59</v>
+      </c>
+      <c r="F13" t="n">
+        <v>296</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" t="n">
+        <v>975</v>
+      </c>
+      <c r="E14" t="n">
+        <v>727</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>53</v>
+      </c>
+      <c r="G15" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="n">
+        <v>84</v>
+      </c>
+      <c r="E16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>137</v>
+      </c>
+      <c r="G16" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" t="n">
+        <v>111</v>
+      </c>
+      <c r="E17" t="n">
+        <v>34</v>
+      </c>
+      <c r="F17" t="n">
+        <v>177</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18" t="n">
+        <v>422</v>
+      </c>
+      <c r="E18" t="n">
+        <v>103</v>
+      </c>
+      <c r="F18" t="n">
+        <v>682</v>
+      </c>
+      <c r="G18" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>262</v>
+      </c>
+      <c r="D19" t="n">
+        <v>511</v>
+      </c>
+      <c r="E19" t="n">
+        <v>393</v>
+      </c>
+      <c r="F19" t="n">
+        <v>612</v>
+      </c>
+      <c r="G19" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>30.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="n">
+        <v>215</v>
+      </c>
+      <c r="E2" t="n">
+        <v>123</v>
+      </c>
+      <c r="F2" t="n">
+        <v>282</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>47</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-17.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>83</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>63</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>174</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" t="n">
+        <v>118</v>
+      </c>
+      <c r="E7" t="n">
+        <v>43</v>
+      </c>
+      <c r="F7" t="n">
+        <v>176</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>166</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>36</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" t="n">
+        <v>34</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>59</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>49</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" t="n">
+        <v>77</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" t="n">
+        <v>41</v>
+      </c>
+      <c r="E13" t="n">
+        <v>16</v>
+      </c>
+      <c r="F13" t="n">
+        <v>63</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" t="n">
+        <v>153</v>
+      </c>
+      <c r="E14" t="n">
+        <v>36</v>
+      </c>
+      <c r="F14" t="n">
+        <v>240</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>26</v>
+      </c>
+      <c r="G15" t="n">
+        <v>22</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>44</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>57</v>
+      </c>
+      <c r="G17" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-43</v>
+      </c>
+      <c r="F18" t="n">
+        <v>143</v>
+      </c>
+      <c r="G18" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" t="n">
+        <v>93</v>
+      </c>
+      <c r="E19" t="n">
+        <v>67</v>
+      </c>
+      <c r="F19" t="n">
+        <v>114</v>
+      </c>
+      <c r="G19" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12</v>
+      </c>
+      <c r="I19" t="n">
+        <v>22.2</v>
       </c>
     </row>
   </sheetData>
@@ -2110,22 +5195,22 @@
         <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="E2" t="n">
-        <v>-441</v>
+        <v>-67</v>
       </c>
       <c r="F2" t="n">
-        <v>713</v>
+        <v>134</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.3</v>
+        <v>-0.9</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3">
@@ -2139,22 +5224,22 @@
         <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>-27</v>
+        <v>-4</v>
       </c>
       <c r="F3" t="n">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.1</v>
+        <v>-0.8</v>
       </c>
       <c r="I3" t="n">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="4">
@@ -2168,22 +5253,22 @@
         <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>-68</v>
+        <v>-12</v>
       </c>
       <c r="F4" t="n">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="G4" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.2</v>
+        <v>-1.3</v>
       </c>
       <c r="I4" t="n">
-        <v>9.3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5">
@@ -2197,22 +5282,22 @@
         <v>39</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>-110</v>
+        <v>-18</v>
       </c>
       <c r="F5" t="n">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
-        <v>-3</v>
+        <v>-1.2</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="6">
@@ -2226,22 +5311,22 @@
         <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>-244</v>
+        <v>-39</v>
       </c>
       <c r="F6" t="n">
-        <v>282</v>
+        <v>51</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.2</v>
+        <v>-1.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7">
@@ -2252,25 +5337,25 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>-191</v>
+        <v>-31</v>
       </c>
       <c r="F7" t="n">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.5</v>
+        <v>-1.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="8">
@@ -2281,25 +5366,25 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="n">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>-43</v>
+        <v>-6</v>
       </c>
       <c r="F8" t="n">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c r="G8" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9">
@@ -2310,25 +5395,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>-37</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.5</v>
+        <v>-1.9</v>
       </c>
       <c r="I9" t="n">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="10">
@@ -2339,25 +5424,25 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>-24</v>
+        <v>-4</v>
       </c>
       <c r="F10" t="n">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.8</v>
+        <v>-0.7</v>
       </c>
       <c r="I10" t="n">
-        <v>9.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11">
@@ -2368,25 +5453,25 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>-81</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="n">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.7</v>
+        <v>-1.6</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="12">
@@ -2397,25 +5482,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>-64</v>
+        <v>-10</v>
       </c>
       <c r="F12" t="n">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.7</v>
+        <v>-0.7</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2426,25 +5511,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>-80</v>
+        <v>-13</v>
       </c>
       <c r="F13" t="n">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.7</v>
+        <v>-1.9</v>
       </c>
       <c r="I13" t="n">
-        <v>7.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="14">
@@ -2455,25 +5540,25 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>-304</v>
+        <v>-50</v>
       </c>
       <c r="F14" t="n">
-        <v>360</v>
+        <v>67</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H14" t="n">
-        <v>-3</v>
+        <v>-1.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="15">
@@ -2484,25 +5569,25 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="F15" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
-        <v>-3</v>
+        <v>-1.3</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16">
@@ -2513,25 +5598,25 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>-36</v>
+        <v>-8</v>
       </c>
       <c r="F16" t="n">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H16" t="n">
-        <v>-4.6</v>
+        <v>-2.1</v>
       </c>
       <c r="I16" t="n">
-        <v>11.9</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17">
@@ -2542,25 +5627,25 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>-61</v>
+        <v>-11</v>
       </c>
       <c r="F17" t="n">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.1</v>
+        <v>-1.8</v>
       </c>
       <c r="I17" t="n">
-        <v>10.1</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="18">
@@ -2571,25 +5656,25 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" t="n">
-        <v>-14</v>
+        <v>-2</v>
       </c>
       <c r="E18" t="n">
-        <v>-156</v>
+        <v>-26</v>
       </c>
       <c r="F18" t="n">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="H18" t="n">
-        <v>-4</v>
+        <v>-1.7</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="19">
@@ -2600,25 +5685,25 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>-120</v>
+        <v>-21</v>
       </c>
       <c r="F19" t="n">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.2</v>
+        <v>-1.4</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
     </row>
   </sheetData>
@@ -2672,25 +5757,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>-84</v>
+        <v>157</v>
       </c>
       <c r="E2" t="n">
-        <v>-1152</v>
+        <v>-463</v>
       </c>
       <c r="F2" t="n">
-        <v>848</v>
+        <v>702</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.7</v>
+        <v>-3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="3">
@@ -2701,25 +5786,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
-        <v>-42</v>
+        <v>-25</v>
       </c>
       <c r="F3" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G3" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.2</v>
+        <v>-2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="4">
@@ -2730,22 +5815,22 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E4" t="n">
-        <v>-170</v>
+        <v>-71</v>
       </c>
       <c r="F4" t="n">
-        <v>261</v>
+        <v>176</v>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.5</v>
+        <v>-4.8</v>
       </c>
       <c r="I4" t="n">
         <v>14.2</v>
@@ -2759,25 +5844,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>-295</v>
+        <v>-117</v>
       </c>
       <c r="F5" t="n">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>-7.4</v>
+        <v>-4.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.3</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="6">
@@ -2788,25 +5873,25 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>-84</v>
+        <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-478</v>
+        <v>-251</v>
       </c>
       <c r="F6" t="n">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.2</v>
+        <v>-4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="7">
@@ -2817,25 +5902,25 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>-2</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>-360</v>
+        <v>-195</v>
       </c>
       <c r="F7" t="n">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
-        <v>-6.5</v>
+        <v>-5.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8">
@@ -2846,25 +5931,25 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>-35</v>
+        <v>105</v>
       </c>
       <c r="E8" t="n">
-        <v>-325</v>
+        <v>-46</v>
       </c>
       <c r="F8" t="n">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.5</v>
+        <v>-0.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="9">
@@ -2875,25 +5960,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E9" t="n">
-        <v>-22</v>
+        <v>-34</v>
       </c>
       <c r="F9" t="n">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="G9" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.7</v>
+        <v>-6</v>
       </c>
       <c r="I9" t="n">
-        <v>15.4</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="10">
@@ -2904,25 +5989,25 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>-68</v>
+        <v>-27</v>
       </c>
       <c r="F10" t="n">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="G10" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.9</v>
+        <v>-2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="11">
@@ -2933,25 +6018,25 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>-165</v>
+        <v>-82</v>
       </c>
       <c r="F11" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.9</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.1</v>
+        <v>-5.4</v>
       </c>
       <c r="I11" t="n">
-        <v>5.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="12">
@@ -2962,25 +6047,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E12" t="n">
-        <v>-161</v>
+        <v>-66</v>
       </c>
       <c r="F12" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.5</v>
+        <v>-2.5</v>
       </c>
       <c r="I12" t="n">
-        <v>5.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="13">
@@ -2991,25 +6076,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D13" t="n">
-        <v>-8</v>
+        <v>22</v>
       </c>
       <c r="E13" t="n">
-        <v>-212</v>
+        <v>-83</v>
       </c>
       <c r="F13" t="n">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>-11.9</v>
+        <v>-6.9</v>
       </c>
       <c r="I13" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="14">
@@ -3020,25 +6105,25 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" t="n">
-        <v>-31</v>
+        <v>55</v>
       </c>
       <c r="E14" t="n">
-        <v>-517</v>
+        <v>-307</v>
       </c>
       <c r="F14" t="n">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.9</v>
+        <v>-4.3</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15">
@@ -3049,25 +6134,25 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>-30</v>
+        <v>-15</v>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>-6.3</v>
+        <v>-4.4</v>
       </c>
       <c r="I15" t="n">
-        <v>8.9</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="16">
@@ -3078,25 +6163,25 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D16" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>-71</v>
+        <v>-36</v>
       </c>
       <c r="F16" t="n">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.4</v>
+        <v>-6.9</v>
       </c>
       <c r="I16" t="n">
-        <v>17.8</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="17">
@@ -3107,25 +6192,25 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>-164</v>
+        <v>-65</v>
       </c>
       <c r="F17" t="n">
-        <v>236</v>
+        <v>133</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.8</v>
+        <v>-6.1</v>
       </c>
       <c r="I17" t="n">
-        <v>18.4</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="18">
@@ -3136,25 +6221,25 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" t="n">
-        <v>-67</v>
+        <v>-16</v>
       </c>
       <c r="E18" t="n">
-        <v>-209</v>
+        <v>-159</v>
       </c>
       <c r="F18" t="n">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.7</v>
+        <v>-0.6</v>
       </c>
       <c r="H18" t="n">
-        <v>-5.2</v>
+        <v>-5.6</v>
       </c>
       <c r="I18" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -3165,25 +6250,25 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="n">
-        <v>-117</v>
+        <v>-119</v>
       </c>
       <c r="F19" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G19" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.2</v>
+        <v>-4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>
@@ -3237,25 +6322,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" t="n">
-        <v>-213</v>
+        <v>-19</v>
       </c>
       <c r="E2" t="n">
-        <v>-1375</v>
+        <v>-793</v>
       </c>
       <c r="F2" t="n">
-        <v>804</v>
+        <v>655</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.2</v>
+        <v>-0.1</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.5</v>
+        <v>-5.6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -3266,25 +6351,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" t="n">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>-102</v>
+        <v>-32</v>
       </c>
       <c r="F3" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.5</v>
+        <v>-3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -3295,25 +6380,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="n">
-        <v>-33</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
-        <v>-147</v>
+        <v>-119</v>
       </c>
       <c r="F4" t="n">
-        <v>64</v>
+        <v>194</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.7</v>
+        <v>-7.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="5">
@@ -3324,25 +6409,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>-15</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>-342</v>
+        <v>-197</v>
       </c>
       <c r="F5" t="n">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.5</v>
+        <v>-7.1</v>
       </c>
       <c r="I5" t="n">
-        <v>9.1</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="6">
@@ -3353,25 +6438,25 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>-52</v>
+        <v>-45</v>
       </c>
       <c r="E6" t="n">
-        <v>-494</v>
+        <v>-343</v>
       </c>
       <c r="F6" t="n">
-        <v>361</v>
+        <v>208</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="H6" t="n">
-        <v>-6.9</v>
+        <v>-6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7">
@@ -3382,25 +6467,25 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="n">
-        <v>-47</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>-275</v>
+        <v>-264</v>
       </c>
       <c r="F7" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="G7" t="n">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="H7" t="n">
-        <v>-5.7</v>
+        <v>-6.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="8">
@@ -3411,25 +6496,25 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" t="n">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-786</v>
+        <v>-194</v>
       </c>
       <c r="F8" t="n">
-        <v>444</v>
+        <v>172</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.8</v>
+        <v>-3</v>
       </c>
       <c r="I8" t="n">
-        <v>5.8</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="9">
@@ -3440,25 +6525,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>-30</v>
+        <v>-23</v>
       </c>
       <c r="F9" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>6.3</v>
       </c>
       <c r="H9" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>12.2</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="10">
@@ -3469,25 +6554,25 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
-        <v>-102</v>
+        <v>-47</v>
       </c>
       <c r="F10" t="n">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.4</v>
+        <v>-4.9</v>
       </c>
       <c r="I10" t="n">
-        <v>9.1</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="11">
@@ -3498,25 +6583,25 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="E11" t="n">
-        <v>-174</v>
+        <v>-116</v>
       </c>
       <c r="F11" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.2</v>
+        <v>-7.1</v>
       </c>
       <c r="I11" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="12">
@@ -3527,25 +6612,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>-161</v>
+        <v>-110</v>
       </c>
       <c r="F12" t="n">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.8</v>
+        <v>-4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="13">
@@ -3556,25 +6641,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" t="n">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-199</v>
+        <v>-144</v>
       </c>
       <c r="F13" t="n">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-13.1</v>
+        <v>-11.8</v>
       </c>
       <c r="I13" t="n">
-        <v>7.2</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="14">
@@ -3585,25 +6670,25 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" t="n">
-        <v>-50</v>
+        <v>-9</v>
       </c>
       <c r="E14" t="n">
-        <v>-505</v>
+        <v>-371</v>
       </c>
       <c r="F14" t="n">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6</v>
+        <v>-0.1</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.3</v>
+        <v>-5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="15">
@@ -3614,25 +6699,25 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" t="n">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>-52</v>
+        <v>-22</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>-11.6</v>
+        <v>-6.6</v>
       </c>
       <c r="I15" t="n">
-        <v>5.2</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="16">
@@ -3643,25 +6728,25 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="n">
-        <v>-9</v>
+        <v>22</v>
       </c>
       <c r="E16" t="n">
-        <v>-57</v>
+        <v>-51</v>
       </c>
       <c r="F16" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H16" t="n">
-        <v>-7.9</v>
+        <v>-8.7</v>
       </c>
       <c r="I16" t="n">
-        <v>5.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -3672,25 +6757,25 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E17" t="n">
-        <v>-235</v>
+        <v>-112</v>
       </c>
       <c r="F17" t="n">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>-15.2</v>
+        <v>-9.5</v>
       </c>
       <c r="I17" t="n">
-        <v>21.5</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="18">
@@ -3701,25 +6786,25 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="n">
-        <v>-19</v>
+        <v>-44</v>
       </c>
       <c r="E18" t="n">
-        <v>-207</v>
+        <v>-154</v>
       </c>
       <c r="F18" t="n">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6</v>
+        <v>-1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>-5.7</v>
+        <v>-5.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -3730,25 +6815,25 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D19" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" t="n">
-        <v>-156</v>
+        <v>-97</v>
       </c>
       <c r="F19" t="n">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.6</v>
+        <v>-3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>
@@ -3802,25 +6887,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>3060</v>
+        <v>-319</v>
       </c>
       <c r="E2" t="n">
-        <v>1731</v>
+        <v>-1163</v>
       </c>
       <c r="F2" t="n">
-        <v>4182</v>
+        <v>396</v>
       </c>
       <c r="G2" t="n">
-        <v>16.9</v>
+        <v>-2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>8.9</v>
+        <v>-8</v>
       </c>
       <c r="I2" t="n">
-        <v>24.6</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -3831,25 +6916,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>87</v>
+        <v>-7</v>
       </c>
       <c r="E3" t="n">
-        <v>-72</v>
+        <v>-61</v>
       </c>
       <c r="F3" t="n">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="G3" t="n">
-        <v>7.3</v>
+        <v>-0.9</v>
       </c>
       <c r="H3" t="n">
-        <v>-5.4</v>
+        <v>-6.6</v>
       </c>
       <c r="I3" t="n">
-        <v>20.7</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="4">
@@ -3860,25 +6945,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>230</v>
+        <v>-28</v>
       </c>
       <c r="E4" t="n">
-        <v>73</v>
+        <v>-144</v>
       </c>
       <c r="F4" t="n">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="G4" t="n">
-        <v>11.6</v>
+        <v>-1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>-9.2</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="5">
@@ -3889,25 +6974,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" t="n">
-        <v>788</v>
+        <v>-50</v>
       </c>
       <c r="E5" t="n">
-        <v>462</v>
+        <v>-285</v>
       </c>
       <c r="F5" t="n">
-        <v>1041</v>
+        <v>161</v>
       </c>
       <c r="G5" t="n">
-        <v>23.2</v>
+        <v>-2</v>
       </c>
       <c r="H5" t="n">
-        <v>12.4</v>
+        <v>-10.2</v>
       </c>
       <c r="I5" t="n">
-        <v>33.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="6">
@@ -3918,25 +7003,25 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" t="n">
-        <v>1396</v>
+        <v>-130</v>
       </c>
       <c r="E6" t="n">
-        <v>784</v>
+        <v>-435</v>
       </c>
       <c r="F6" t="n">
-        <v>1898</v>
+        <v>160</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>-2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>10.3</v>
+        <v>-7.8</v>
       </c>
       <c r="I6" t="n">
-        <v>29.2</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
@@ -3947,25 +7032,25 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D7" t="n">
-        <v>626</v>
+        <v>-68</v>
       </c>
       <c r="E7" t="n">
-        <v>162</v>
+        <v>-234</v>
       </c>
       <c r="F7" t="n">
-        <v>1021</v>
+        <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>-1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>-6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>23.1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8">
@@ -3976,25 +7061,25 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D8" t="n">
-        <v>1795</v>
+        <v>-181</v>
       </c>
       <c r="E8" t="n">
-        <v>1039</v>
+        <v>-620</v>
       </c>
       <c r="F8" t="n">
-        <v>2516</v>
+        <v>190</v>
       </c>
       <c r="G8" t="n">
-        <v>20.6</v>
+        <v>-2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="I8" t="n">
-        <v>31.5</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="9">
@@ -4005,25 +7090,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>-32</v>
+        <v>-2</v>
       </c>
       <c r="F9" t="n">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>10.2</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.8</v>
+        <v>-0.4</v>
       </c>
       <c r="I9" t="n">
-        <v>26.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="10">
@@ -4034,25 +7119,25 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" t="n">
-        <v>192</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>45</v>
+        <v>-74</v>
       </c>
       <c r="F10" t="n">
-        <v>313</v>
+        <v>65</v>
       </c>
       <c r="G10" t="n">
-        <v>15.6</v>
+        <v>0.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>-7.8</v>
       </c>
       <c r="I10" t="n">
-        <v>28.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -4063,25 +7148,25 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D11" t="n">
-        <v>569</v>
+        <v>-41</v>
       </c>
       <c r="E11" t="n">
-        <v>362</v>
+        <v>-137</v>
       </c>
       <c r="F11" t="n">
-        <v>743</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>28.2</v>
+        <v>-2.7</v>
       </c>
       <c r="H11" t="n">
-        <v>16.3</v>
+        <v>-8.5</v>
       </c>
       <c r="I11" t="n">
-        <v>40.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -4092,25 +7177,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D12" t="n">
-        <v>851</v>
+        <v>-48</v>
       </c>
       <c r="E12" t="n">
-        <v>505</v>
+        <v>-154</v>
       </c>
       <c r="F12" t="n">
-        <v>1125</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>25.5</v>
+        <v>-1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>13.7</v>
+        <v>-5.8</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13">
@@ -4121,25 +7206,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>204</v>
+        <v>-45</v>
       </c>
       <c r="E13" t="n">
-        <v>-20</v>
+        <v>-171</v>
       </c>
       <c r="F13" t="n">
-        <v>364</v>
+        <v>62</v>
       </c>
       <c r="G13" t="n">
-        <v>13.4</v>
+        <v>-4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.1</v>
+        <v>-13.9</v>
       </c>
       <c r="I13" t="n">
-        <v>26.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="14">
@@ -4150,25 +7235,25 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>1287</v>
+        <v>-109</v>
       </c>
       <c r="E14" t="n">
-        <v>616</v>
+        <v>-399</v>
       </c>
       <c r="F14" t="n">
-        <v>1881</v>
+        <v>172</v>
       </c>
       <c r="G14" t="n">
-        <v>13.7</v>
+        <v>-1.5</v>
       </c>
       <c r="H14" t="n">
-        <v>6.1</v>
+        <v>-5.4</v>
       </c>
       <c r="I14" t="n">
-        <v>21.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15">
@@ -4179,25 +7264,25 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>-11</v>
       </c>
       <c r="E15" t="n">
-        <v>-55</v>
+        <v>-33</v>
       </c>
       <c r="F15" t="n">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>7.7</v>
+        <v>-3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.5</v>
+        <v>-9.2</v>
       </c>
       <c r="I15" t="n">
-        <v>27.4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
@@ -4208,25 +7293,25 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>-5</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>-53</v>
       </c>
       <c r="F16" t="n">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="G16" t="n">
-        <v>8.1</v>
+        <v>-0.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1</v>
+        <v>-8.8</v>
       </c>
       <c r="I16" t="n">
-        <v>15.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="17">
@@ -4237,25 +7322,25 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" t="n">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>-169</v>
       </c>
       <c r="F17" t="n">
-        <v>422</v>
+        <v>161</v>
       </c>
       <c r="G17" t="n">
-        <v>18.4</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5</v>
+        <v>-14.2</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="18">
@@ -4266,25 +7351,25 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D18" t="n">
-        <v>567</v>
+        <v>-57</v>
       </c>
       <c r="E18" t="n">
-        <v>208</v>
+        <v>-156</v>
       </c>
       <c r="F18" t="n">
-        <v>872</v>
+        <v>33</v>
       </c>
       <c r="G18" t="n">
-        <v>15.6</v>
+        <v>-2.1</v>
       </c>
       <c r="H18" t="n">
-        <v>5.2</v>
+        <v>-5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>26.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="19">
@@ -4295,25 +7380,25 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" t="n">
-        <v>446</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>97</v>
+        <v>-83</v>
       </c>
       <c r="F19" t="n">
-        <v>765</v>
+        <v>78</v>
       </c>
       <c r="G19" t="n">
-        <v>13.7</v>
+        <v>0.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.7</v>
+        <v>-3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>26</v>
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -4367,25 +7452,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n">
-        <v>10413</v>
+        <v>339</v>
       </c>
       <c r="E2" t="n">
-        <v>9329</v>
+        <v>-634</v>
       </c>
       <c r="F2" t="n">
-        <v>11275</v>
+        <v>1145</v>
       </c>
       <c r="G2" t="n">
-        <v>58.7</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>49.6</v>
+        <v>-4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>66.8</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="3">
@@ -4396,25 +7481,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3" t="n">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>95</v>
+        <v>-85</v>
       </c>
       <c r="F3" t="n">
-        <v>409</v>
+        <v>86</v>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>-9.2</v>
       </c>
       <c r="I3" t="n">
-        <v>40.8</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="4">
@@ -4425,25 +7510,25 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>952</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>521</v>
+        <v>-50</v>
       </c>
       <c r="F4" t="n">
-        <v>1249</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
-        <v>50.6</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
-        <v>22.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>78.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="5">
@@ -4454,25 +7539,25 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5" t="n">
-        <v>2683</v>
+        <v>105</v>
       </c>
       <c r="E5" t="n">
-        <v>2361</v>
+        <v>-173</v>
       </c>
       <c r="F5" t="n">
-        <v>2915</v>
+        <v>330</v>
       </c>
       <c r="G5" t="n">
-        <v>80.5</v>
+        <v>4.1</v>
       </c>
       <c r="H5" t="n">
-        <v>64.6</v>
+        <v>-6.2</v>
       </c>
       <c r="I5" t="n">
-        <v>94</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="6">
@@ -4483,25 +7568,25 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6" t="n">
-        <v>4471</v>
+        <v>192</v>
       </c>
       <c r="E6" t="n">
-        <v>3783</v>
+        <v>-195</v>
       </c>
       <c r="F6" t="n">
-        <v>4920</v>
+        <v>541</v>
       </c>
       <c r="G6" t="n">
-        <v>65.3</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>50.2</v>
+        <v>-3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>76.9</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="7">
@@ -4512,25 +7597,25 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" t="n">
-        <v>2171</v>
+        <v>77</v>
       </c>
       <c r="E7" t="n">
-        <v>1548</v>
+        <v>-163</v>
       </c>
       <c r="F7" t="n">
-        <v>2654</v>
+        <v>283</v>
       </c>
       <c r="G7" t="n">
-        <v>45.8</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>28.9</v>
+        <v>-4.3</v>
       </c>
       <c r="I7" t="n">
-        <v>62.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="8">
@@ -4541,25 +7626,25 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" t="n">
-        <v>6160</v>
+        <v>179</v>
       </c>
       <c r="E8" t="n">
-        <v>5353</v>
+        <v>-383</v>
       </c>
       <c r="F8" t="n">
-        <v>6870</v>
+        <v>673</v>
       </c>
       <c r="G8" t="n">
-        <v>73.3</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>58.1</v>
+        <v>-5.6</v>
       </c>
       <c r="I8" t="n">
-        <v>89.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="9">
@@ -4570,25 +7655,25 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="D9" t="n">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="E9" t="n">
-        <v>-26</v>
+        <v>-34</v>
       </c>
       <c r="F9" t="n">
-        <v>316</v>
+        <v>77</v>
       </c>
       <c r="G9" t="n">
-        <v>27.1</v>
+        <v>4.7</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.8</v>
+        <v>-5.9</v>
       </c>
       <c r="I9" t="n">
-        <v>55.7</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="10">
@@ -4602,22 +7687,22 @@
         <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>752</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>493</v>
+        <v>-65</v>
       </c>
       <c r="F10" t="n">
-        <v>885</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>64.6</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>34.6</v>
+        <v>-6.9</v>
       </c>
       <c r="I10" t="n">
-        <v>85.9</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="11">
@@ -4631,22 +7716,22 @@
         <v>115</v>
       </c>
       <c r="D11" t="n">
-        <v>1927</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
-        <v>1641</v>
+        <v>-72</v>
       </c>
       <c r="F11" t="n">
-        <v>2089</v>
+        <v>195</v>
       </c>
       <c r="G11" t="n">
-        <v>98.3</v>
+        <v>5.2</v>
       </c>
       <c r="H11" t="n">
-        <v>73</v>
+        <v>-4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>116.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -4660,22 +7745,22 @@
         <v>116</v>
       </c>
       <c r="D12" t="n">
-        <v>2662</v>
+        <v>118</v>
       </c>
       <c r="E12" t="n">
-        <v>2180</v>
+        <v>-36</v>
       </c>
       <c r="F12" t="n">
-        <v>2988</v>
+        <v>238</v>
       </c>
       <c r="G12" t="n">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>58.4</v>
+        <v>-1.4</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="13">
@@ -4689,22 +7774,22 @@
         <v>117</v>
       </c>
       <c r="D13" t="n">
-        <v>790</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>520</v>
+        <v>-132</v>
       </c>
       <c r="F13" t="n">
-        <v>938</v>
+        <v>109</v>
       </c>
       <c r="G13" t="n">
-        <v>55</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="n">
-        <v>30.5</v>
+        <v>-10.7</v>
       </c>
       <c r="I13" t="n">
-        <v>72.8</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="14">
@@ -4718,22 +7803,22 @@
         <v>118</v>
       </c>
       <c r="D14" t="n">
-        <v>4272</v>
+        <v>182</v>
       </c>
       <c r="E14" t="n">
-        <v>3585</v>
+        <v>-248</v>
       </c>
       <c r="F14" t="n">
-        <v>4885</v>
+        <v>580</v>
       </c>
       <c r="G14" t="n">
-        <v>45.9</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
-        <v>35.9</v>
+        <v>-3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>56.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -4747,22 +7832,22 @@
         <v>119</v>
       </c>
       <c r="D15" t="n">
-        <v>109</v>
+        <v>-4</v>
       </c>
       <c r="E15" t="n">
-        <v>-31</v>
+        <v>-44</v>
       </c>
       <c r="F15" t="n">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>25.9</v>
+        <v>-1.5</v>
       </c>
       <c r="H15" t="n">
-        <v>-5.6</v>
+        <v>-13</v>
       </c>
       <c r="I15" t="n">
-        <v>61.2</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="16">
@@ -4776,22 +7861,22 @@
         <v>120</v>
       </c>
       <c r="D16" t="n">
-        <v>231</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>130</v>
+        <v>-33</v>
       </c>
       <c r="F16" t="n">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>33.6</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
-        <v>16.6</v>
+        <v>-6</v>
       </c>
       <c r="I16" t="n">
-        <v>43.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="17">
@@ -4805,22 +7890,22 @@
         <v>121</v>
       </c>
       <c r="D17" t="n">
-        <v>785</v>
+        <v>53</v>
       </c>
       <c r="E17" t="n">
-        <v>634</v>
+        <v>-160</v>
       </c>
       <c r="F17" t="n">
-        <v>867</v>
+        <v>212</v>
       </c>
       <c r="G17" t="n">
-        <v>58.3</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
-        <v>42.4</v>
+        <v>-13.2</v>
       </c>
       <c r="I17" t="n">
-        <v>68.6</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="18">
@@ -4834,22 +7919,22 @@
         <v>122</v>
       </c>
       <c r="D18" t="n">
-        <v>1838</v>
+        <v>85</v>
       </c>
       <c r="E18" t="n">
-        <v>1349</v>
+        <v>-113</v>
       </c>
       <c r="F18" t="n">
-        <v>2194</v>
+        <v>263</v>
       </c>
       <c r="G18" t="n">
-        <v>51.5</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>33.2</v>
+        <v>-4</v>
       </c>
       <c r="I18" t="n">
-        <v>68.3</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="19">
@@ -4863,22 +7948,22 @@
         <v>123</v>
       </c>
       <c r="D19" t="n">
-        <v>1415</v>
+        <v>97</v>
       </c>
       <c r="E19" t="n">
-        <v>986</v>
+        <v>-112</v>
       </c>
       <c r="F19" t="n">
-        <v>1766</v>
+        <v>295</v>
       </c>
       <c r="G19" t="n">
-        <v>43.3</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>26.7</v>
+        <v>-4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>60.5</v>
+        <v>13.4</v>
       </c>
     </row>
   </sheetData>
@@ -4935,22 +8020,22 @@
         <v>124</v>
       </c>
       <c r="D2" t="n">
-        <v>15139</v>
+        <v>2741</v>
       </c>
       <c r="E2" t="n">
-        <v>14020</v>
+        <v>1839</v>
       </c>
       <c r="F2" t="n">
-        <v>16075</v>
+        <v>3504</v>
       </c>
       <c r="G2" t="n">
-        <v>73.9</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>64.9</v>
+        <v>13.7</v>
       </c>
       <c r="I2" t="n">
-        <v>82.3</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="3">
@@ -4964,22 +8049,22 @@
         <v>125</v>
       </c>
       <c r="D3" t="n">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="E3" t="n">
-        <v>207</v>
+        <v>-39</v>
       </c>
       <c r="F3" t="n">
-        <v>592</v>
+        <v>178</v>
       </c>
       <c r="G3" t="n">
-        <v>31.3</v>
+        <v>9.2</v>
       </c>
       <c r="H3" t="n">
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="I3" t="n">
-        <v>49.1</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="4">
@@ -4993,22 +8078,22 @@
         <v>126</v>
       </c>
       <c r="D4" t="n">
-        <v>1461</v>
+        <v>213</v>
       </c>
       <c r="E4" t="n">
-        <v>943</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>1832</v>
+        <v>333</v>
       </c>
       <c r="G4" t="n">
-        <v>65.9</v>
+        <v>15.6</v>
       </c>
       <c r="H4" t="n">
-        <v>34.5</v>
+        <v>4.7</v>
       </c>
       <c r="I4" t="n">
-        <v>99.3</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="5">
@@ -5022,22 +8107,22 @@
         <v>127</v>
       </c>
       <c r="D5" t="n">
-        <v>3682</v>
+        <v>701</v>
       </c>
       <c r="E5" t="n">
-        <v>3258</v>
+        <v>490</v>
       </c>
       <c r="F5" t="n">
-        <v>3979</v>
+        <v>867</v>
       </c>
       <c r="G5" t="n">
-        <v>94.7</v>
+        <v>30.1</v>
       </c>
       <c r="H5" t="n">
-        <v>75.6</v>
+        <v>19.3</v>
       </c>
       <c r="I5" t="n">
-        <v>110.8</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="6">
@@ -5051,22 +8136,22 @@
         <v>128</v>
       </c>
       <c r="D6" t="n">
-        <v>6402</v>
+        <v>1243</v>
       </c>
       <c r="E6" t="n">
-        <v>5788</v>
+        <v>809</v>
       </c>
       <c r="F6" t="n">
-        <v>6843</v>
+        <v>1579</v>
       </c>
       <c r="G6" t="n">
-        <v>81.6</v>
+        <v>25.7</v>
       </c>
       <c r="H6" t="n">
-        <v>68.4</v>
+        <v>15.4</v>
       </c>
       <c r="I6" t="n">
-        <v>92.4</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="7">
@@ -5080,22 +8165,22 @@
         <v>129</v>
       </c>
       <c r="D7" t="n">
-        <v>3446</v>
+        <v>554</v>
       </c>
       <c r="E7" t="n">
-        <v>2923</v>
+        <v>212</v>
       </c>
       <c r="F7" t="n">
-        <v>3867</v>
+        <v>847</v>
       </c>
       <c r="G7" t="n">
-        <v>64</v>
+        <v>16.9</v>
       </c>
       <c r="H7" t="n">
-        <v>49.5</v>
+        <v>5.9</v>
       </c>
       <c r="I7" t="n">
-        <v>77.9</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="8">
@@ -5109,22 +8194,22 @@
         <v>130</v>
       </c>
       <c r="D8" t="n">
-        <v>8393</v>
+        <v>1621</v>
       </c>
       <c r="E8" t="n">
-        <v>7618</v>
+        <v>1099</v>
       </c>
       <c r="F8" t="n">
-        <v>9047</v>
+        <v>2127</v>
       </c>
       <c r="G8" t="n">
-        <v>85.9</v>
+        <v>26.8</v>
       </c>
       <c r="H8" t="n">
-        <v>72.2</v>
+        <v>16.7</v>
       </c>
       <c r="I8" t="n">
-        <v>99.2</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="9">
@@ -5138,22 +8223,22 @@
         <v>131</v>
       </c>
       <c r="D9" t="n">
-        <v>351</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
-        <v>69</v>
+        <v>-23</v>
       </c>
       <c r="F9" t="n">
-        <v>525</v>
+        <v>132</v>
       </c>
       <c r="G9" t="n">
-        <v>40.8</v>
+        <v>11.9</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>-3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>76.7</v>
+        <v>29.3</v>
       </c>
     </row>
     <row r="10">
@@ -5167,22 +8252,22 @@
         <v>132</v>
       </c>
       <c r="D10" t="n">
-        <v>1184</v>
+        <v>172</v>
       </c>
       <c r="E10" t="n">
-        <v>854</v>
+        <v>59</v>
       </c>
       <c r="F10" t="n">
-        <v>1395</v>
+        <v>260</v>
       </c>
       <c r="G10" t="n">
-        <v>86.3</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>50.2</v>
+        <v>6.1</v>
       </c>
       <c r="I10" t="n">
-        <v>120.3</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="11">
@@ -5196,22 +8281,22 @@
         <v>133</v>
       </c>
       <c r="D11" t="n">
-        <v>2561</v>
+        <v>504</v>
       </c>
       <c r="E11" t="n">
-        <v>2248</v>
+        <v>349</v>
       </c>
       <c r="F11" t="n">
-        <v>2731</v>
+        <v>626</v>
       </c>
       <c r="G11" t="n">
-        <v>110.9</v>
+        <v>36.4</v>
       </c>
       <c r="H11" t="n">
-        <v>85.7</v>
+        <v>22.6</v>
       </c>
       <c r="I11" t="n">
-        <v>127.7</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="12">
@@ -5225,22 +8310,22 @@
         <v>134</v>
       </c>
       <c r="D12" t="n">
-        <v>3508</v>
+        <v>759</v>
       </c>
       <c r="E12" t="n">
-        <v>3306</v>
+        <v>490</v>
       </c>
       <c r="F12" t="n">
-        <v>3594</v>
+        <v>969</v>
       </c>
       <c r="G12" t="n">
-        <v>94.8</v>
+        <v>32.3</v>
       </c>
       <c r="H12" t="n">
-        <v>84.7</v>
+        <v>18.7</v>
       </c>
       <c r="I12" t="n">
-        <v>99.5</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="13">
@@ -5254,22 +8339,22 @@
         <v>135</v>
       </c>
       <c r="D13" t="n">
-        <v>1073</v>
+        <v>191</v>
       </c>
       <c r="E13" t="n">
-        <v>829</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
-        <v>1174</v>
+        <v>306</v>
       </c>
       <c r="G13" t="n">
-        <v>65.8</v>
+        <v>18.7</v>
       </c>
       <c r="H13" t="n">
-        <v>44.2</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>76.7</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="14">
@@ -5283,22 +8368,22 @@
         <v>136</v>
       </c>
       <c r="D14" t="n">
-        <v>6780</v>
+        <v>1135</v>
       </c>
       <c r="E14" t="n">
-        <v>6075</v>
+        <v>662</v>
       </c>
       <c r="F14" t="n">
-        <v>7387</v>
+        <v>1556</v>
       </c>
       <c r="G14" t="n">
-        <v>63.5</v>
+        <v>17.7</v>
       </c>
       <c r="H14" t="n">
-        <v>53.4</v>
+        <v>9.6</v>
       </c>
       <c r="I14" t="n">
-        <v>73.4</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="15">
@@ -5312,22 +8397,22 @@
         <v>137</v>
       </c>
       <c r="D15" t="n">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>-55</v>
+        <v>-37</v>
       </c>
       <c r="F15" t="n">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="G15" t="n">
-        <v>24.8</v>
+        <v>10.3</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I15" t="n">
-        <v>66.4</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="16">
@@ -5341,22 +8426,22 @@
         <v>138</v>
       </c>
       <c r="D16" t="n">
-        <v>319</v>
+        <v>53</v>
       </c>
       <c r="E16" t="n">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>386</v>
+        <v>84</v>
       </c>
       <c r="G16" t="n">
-        <v>39.6</v>
+        <v>10.8</v>
       </c>
       <c r="H16" t="n">
-        <v>20.4</v>
+        <v>2.2</v>
       </c>
       <c r="I16" t="n">
-        <v>52.3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -5370,22 +8455,22 @@
         <v>139</v>
       </c>
       <c r="D17" t="n">
-        <v>1151</v>
+        <v>215</v>
       </c>
       <c r="E17" t="n">
-        <v>1016</v>
+        <v>63</v>
       </c>
       <c r="F17" t="n">
-        <v>1217</v>
+        <v>329</v>
       </c>
       <c r="G17" t="n">
-        <v>74.3</v>
+        <v>23.3</v>
       </c>
       <c r="H17" t="n">
-        <v>60.2</v>
+        <v>5.8</v>
       </c>
       <c r="I17" t="n">
-        <v>82</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="18">
@@ -5399,22 +8484,22 @@
         <v>140</v>
       </c>
       <c r="D18" t="n">
-        <v>2921</v>
+        <v>501</v>
       </c>
       <c r="E18" t="n">
-        <v>2413</v>
+        <v>243</v>
       </c>
       <c r="F18" t="n">
-        <v>3333</v>
+        <v>716</v>
       </c>
       <c r="G18" t="n">
-        <v>70.9</v>
+        <v>20.3</v>
       </c>
       <c r="H18" t="n">
-        <v>52.1</v>
+        <v>8.9</v>
       </c>
       <c r="I18" t="n">
-        <v>89.8</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="19">
@@ -5428,22 +8513,22 @@
         <v>141</v>
       </c>
       <c r="D19" t="n">
-        <v>2409</v>
+        <v>379</v>
       </c>
       <c r="E19" t="n">
-        <v>2021</v>
+        <v>133</v>
       </c>
       <c r="F19" t="n">
-        <v>2680</v>
+        <v>610</v>
       </c>
       <c r="G19" t="n">
-        <v>64.8</v>
+        <v>17</v>
       </c>
       <c r="H19" t="n">
-        <v>49.3</v>
+        <v>5.3</v>
       </c>
       <c r="I19" t="n">
-        <v>77.8</v>
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
@@ -5500,22 +8585,22 @@
         <v>142</v>
       </c>
       <c r="D2" t="n">
-        <v>9499</v>
+        <v>6489</v>
       </c>
       <c r="E2" t="n">
-        <v>8207</v>
+        <v>5711</v>
       </c>
       <c r="F2" t="n">
-        <v>10676</v>
+        <v>7113</v>
       </c>
       <c r="G2" t="n">
-        <v>54.3</v>
+        <v>52.9</v>
       </c>
       <c r="H2" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="I2" t="n">
-        <v>65.5</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="3">
@@ -5529,22 +8614,22 @@
         <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" t="n">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="G3" t="n">
-        <v>18.8</v>
+        <v>22.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>35.8</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="4">
@@ -5558,22 +8643,22 @@
         <v>144</v>
       </c>
       <c r="D4" t="n">
-        <v>810</v>
+        <v>583</v>
       </c>
       <c r="E4" t="n">
-        <v>425</v>
+        <v>303</v>
       </c>
       <c r="F4" t="n">
-        <v>1117</v>
+        <v>784</v>
       </c>
       <c r="G4" t="n">
-        <v>43.8</v>
+        <v>45.3</v>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>19.4</v>
       </c>
       <c r="I4" t="n">
-        <v>72.5</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="5">
@@ -5587,22 +8672,22 @@
         <v>145</v>
       </c>
       <c r="D5" t="n">
-        <v>1892</v>
+        <v>1710</v>
       </c>
       <c r="E5" t="n">
-        <v>1607</v>
+        <v>1487</v>
       </c>
       <c r="F5" t="n">
-        <v>2104</v>
+        <v>1866</v>
       </c>
       <c r="G5" t="n">
-        <v>57</v>
+        <v>74.5</v>
       </c>
       <c r="H5" t="n">
-        <v>44.6</v>
+        <v>59</v>
       </c>
       <c r="I5" t="n">
-        <v>67.6</v>
+        <v>87.2</v>
       </c>
     </row>
     <row r="6">
@@ -5616,22 +8701,22 @@
         <v>146</v>
       </c>
       <c r="D6" t="n">
-        <v>4119</v>
+        <v>2776</v>
       </c>
       <c r="E6" t="n">
-        <v>3703</v>
+        <v>2283</v>
       </c>
       <c r="F6" t="n">
-        <v>4450</v>
+        <v>3095</v>
       </c>
       <c r="G6" t="n">
-        <v>61.3</v>
+        <v>58.4</v>
       </c>
       <c r="H6" t="n">
-        <v>51.9</v>
+        <v>43.5</v>
       </c>
       <c r="I6" t="n">
-        <v>69.7</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="7">
@@ -5645,22 +8730,22 @@
         <v>147</v>
       </c>
       <c r="D7" t="n">
-        <v>2681</v>
+        <v>1340</v>
       </c>
       <c r="E7" t="n">
-        <v>2358</v>
+        <v>907</v>
       </c>
       <c r="F7" t="n">
-        <v>2953</v>
+        <v>1673</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5</v>
+        <v>40.9</v>
       </c>
       <c r="H7" t="n">
-        <v>48.1</v>
+        <v>24.4</v>
       </c>
       <c r="I7" t="n">
-        <v>68.5</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="8">
@@ -5674,22 +8759,22 @@
         <v>148</v>
       </c>
       <c r="D8" t="n">
-        <v>4678</v>
+        <v>3819</v>
       </c>
       <c r="E8" t="n">
-        <v>4091</v>
+        <v>3252</v>
       </c>
       <c r="F8" t="n">
-        <v>5089</v>
+        <v>4312</v>
       </c>
       <c r="G8" t="n">
-        <v>56</v>
+        <v>66.6</v>
       </c>
       <c r="H8" t="n">
-        <v>45.7</v>
+        <v>51.6</v>
       </c>
       <c r="I8" t="n">
-        <v>64</v>
+        <v>82.3</v>
       </c>
     </row>
     <row r="9">
@@ -5703,22 +8788,22 @@
         <v>149</v>
       </c>
       <c r="D9" t="n">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>-24</v>
       </c>
       <c r="F9" t="n">
-        <v>322</v>
+        <v>206</v>
       </c>
       <c r="G9" t="n">
-        <v>27.7</v>
+        <v>25.2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6</v>
+        <v>-3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>58.3</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="10">
@@ -5732,22 +8817,22 @@
         <v>150</v>
       </c>
       <c r="D10" t="n">
-        <v>664</v>
+        <v>458</v>
       </c>
       <c r="E10" t="n">
-        <v>418</v>
+        <v>291</v>
       </c>
       <c r="F10" t="n">
-        <v>844</v>
+        <v>548</v>
       </c>
       <c r="G10" t="n">
-        <v>57.8</v>
+        <v>58.1</v>
       </c>
       <c r="H10" t="n">
-        <v>29.9</v>
+        <v>30.5</v>
       </c>
       <c r="I10" t="n">
-        <v>87</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="11">
@@ -5761,22 +8846,22 @@
         <v>151</v>
       </c>
       <c r="D11" t="n">
-        <v>1245</v>
+        <v>1209</v>
       </c>
       <c r="E11" t="n">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F11" t="n">
-        <v>1412</v>
+        <v>1321</v>
       </c>
       <c r="G11" t="n">
-        <v>62.8</v>
+        <v>89.7</v>
       </c>
       <c r="H11" t="n">
-        <v>46</v>
+        <v>65.9</v>
       </c>
       <c r="I11" t="n">
-        <v>77.8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12">
@@ -5790,22 +8875,22 @@
         <v>152</v>
       </c>
       <c r="D12" t="n">
-        <v>2061</v>
+        <v>1671</v>
       </c>
       <c r="E12" t="n">
-        <v>1873</v>
+        <v>1332</v>
       </c>
       <c r="F12" t="n">
-        <v>2170</v>
+        <v>1903</v>
       </c>
       <c r="G12" t="n">
-        <v>64.3</v>
+        <v>75</v>
       </c>
       <c r="H12" t="n">
-        <v>55.2</v>
+        <v>51.9</v>
       </c>
       <c r="I12" t="n">
-        <v>70.1</v>
+        <v>95.5</v>
       </c>
     </row>
     <row r="13">
@@ -5819,22 +8904,22 @@
         <v>153</v>
       </c>
       <c r="D13" t="n">
-        <v>718</v>
+        <v>473</v>
       </c>
       <c r="E13" t="n">
-        <v>493</v>
+        <v>293</v>
       </c>
       <c r="F13" t="n">
-        <v>871</v>
+        <v>576</v>
       </c>
       <c r="G13" t="n">
-        <v>51.5</v>
+        <v>49.5</v>
       </c>
       <c r="H13" t="n">
-        <v>30.4</v>
+        <v>25.8</v>
       </c>
       <c r="I13" t="n">
-        <v>70.2</v>
+        <v>67.6</v>
       </c>
     </row>
     <row r="14">
@@ -5848,22 +8933,22 @@
         <v>154</v>
       </c>
       <c r="D14" t="n">
-        <v>4865</v>
+        <v>2676</v>
       </c>
       <c r="E14" t="n">
-        <v>4282</v>
+        <v>2188</v>
       </c>
       <c r="F14" t="n">
-        <v>5339</v>
+        <v>3107</v>
       </c>
       <c r="G14" t="n">
-        <v>53.6</v>
+        <v>41</v>
       </c>
       <c r="H14" t="n">
-        <v>44.3</v>
+        <v>31.2</v>
       </c>
       <c r="I14" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -5877,22 +8962,22 @@
         <v>155</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
-        <v>-66</v>
+        <v>-23</v>
       </c>
       <c r="F15" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G15" t="n">
-        <v>12.2</v>
+        <v>25.2</v>
       </c>
       <c r="H15" t="n">
-        <v>-12.5</v>
+        <v>-5.9</v>
       </c>
       <c r="I15" t="n">
-        <v>40</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="16">
@@ -5906,22 +8991,22 @@
         <v>156</v>
       </c>
       <c r="D16" t="n">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E16" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" t="n">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="G16" t="n">
-        <v>25.4</v>
+        <v>30.7</v>
       </c>
       <c r="H16" t="n">
-        <v>10.8</v>
+        <v>14.9</v>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="17">
@@ -5935,22 +9020,22 @@
         <v>157</v>
       </c>
       <c r="D17" t="n">
-        <v>676</v>
+        <v>516</v>
       </c>
       <c r="E17" t="n">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="F17" t="n">
-        <v>854</v>
+        <v>587</v>
       </c>
       <c r="G17" t="n">
-        <v>51.6</v>
+        <v>55.2</v>
       </c>
       <c r="H17" t="n">
-        <v>27.8</v>
+        <v>37.9</v>
       </c>
       <c r="I17" t="n">
-        <v>75.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
@@ -5964,22 +9049,22 @@
         <v>158</v>
       </c>
       <c r="D18" t="n">
-        <v>2096</v>
+        <v>1124</v>
       </c>
       <c r="E18" t="n">
-        <v>1544</v>
+        <v>780</v>
       </c>
       <c r="F18" t="n">
-        <v>2532</v>
+        <v>1378</v>
       </c>
       <c r="G18" t="n">
-        <v>60.3</v>
+        <v>44.8</v>
       </c>
       <c r="H18" t="n">
-        <v>38.3</v>
+        <v>27.3</v>
       </c>
       <c r="I18" t="n">
-        <v>83.2</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="19">
@@ -5993,22 +9078,22 @@
         <v>159</v>
       </c>
       <c r="D19" t="n">
-        <v>1998</v>
+        <v>888</v>
       </c>
       <c r="E19" t="n">
-        <v>1740</v>
+        <v>593</v>
       </c>
       <c r="F19" t="n">
-        <v>2169</v>
+        <v>1137</v>
       </c>
       <c r="G19" t="n">
-        <v>63.4</v>
+        <v>38.6</v>
       </c>
       <c r="H19" t="n">
-        <v>51</v>
+        <v>22.8</v>
       </c>
       <c r="I19" t="n">
-        <v>72.7</v>
+        <v>55.3</v>
       </c>
     </row>
   </sheetData>
@@ -6065,22 +9150,22 @@
         <v>160</v>
       </c>
       <c r="D2" t="n">
-        <v>5351</v>
+        <v>9623</v>
       </c>
       <c r="E2" t="n">
-        <v>4329</v>
+        <v>8956</v>
       </c>
       <c r="F2" t="n">
-        <v>6175</v>
+        <v>10164</v>
       </c>
       <c r="G2" t="n">
-        <v>30.5</v>
+        <v>74.7</v>
       </c>
       <c r="H2" t="n">
-        <v>23.3</v>
+        <v>66.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.9</v>
+        <v>82.4</v>
       </c>
     </row>
     <row r="3">
@@ -6094,22 +9179,22 @@
         <v>161</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>269</v>
       </c>
       <c r="E3" t="n">
-        <v>-167</v>
+        <v>128</v>
       </c>
       <c r="F3" t="n">
-        <v>169</v>
+        <v>372</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>31.8</v>
       </c>
       <c r="H3" t="n">
-        <v>-12.3</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>16.5</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="4">
@@ -6123,22 +9208,22 @@
         <v>162</v>
       </c>
       <c r="D4" t="n">
-        <v>424</v>
+        <v>939</v>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>597</v>
       </c>
       <c r="F4" t="n">
-        <v>691</v>
+        <v>1165</v>
       </c>
       <c r="G4" t="n">
-        <v>22.5</v>
+        <v>67.4</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>34.4</v>
       </c>
       <c r="I4" t="n">
-        <v>42.6</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="5">
@@ -6152,22 +9237,22 @@
         <v>163</v>
       </c>
       <c r="D5" t="n">
-        <v>819</v>
+        <v>2469</v>
       </c>
       <c r="E5" t="n">
-        <v>571</v>
+        <v>2213</v>
       </c>
       <c r="F5" t="n">
-        <v>991</v>
+        <v>2660</v>
       </c>
       <c r="G5" t="n">
-        <v>24.8</v>
+        <v>98.6</v>
       </c>
       <c r="H5" t="n">
-        <v>16.1</v>
+        <v>80.2</v>
       </c>
       <c r="I5" t="n">
-        <v>31.7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
@@ -6181,22 +9266,22 @@
         <v>164</v>
       </c>
       <c r="D6" t="n">
-        <v>2421</v>
+        <v>4071</v>
       </c>
       <c r="E6" t="n">
-        <v>2071</v>
+        <v>3629</v>
       </c>
       <c r="F6" t="n">
-        <v>2684</v>
+        <v>4387</v>
       </c>
       <c r="G6" t="n">
-        <v>35.8</v>
+        <v>83.2</v>
       </c>
       <c r="H6" t="n">
-        <v>29.1</v>
+        <v>68</v>
       </c>
       <c r="I6" t="n">
-        <v>41.3</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="7">
@@ -6210,22 +9295,22 @@
         <v>165</v>
       </c>
       <c r="D7" t="n">
-        <v>1812</v>
+        <v>2017</v>
       </c>
       <c r="E7" t="n">
-        <v>1272</v>
+        <v>1584</v>
       </c>
       <c r="F7" t="n">
-        <v>2238</v>
+        <v>2357</v>
       </c>
       <c r="G7" t="n">
-        <v>39.4</v>
+        <v>59.2</v>
       </c>
       <c r="H7" t="n">
-        <v>24.7</v>
+        <v>41.3</v>
       </c>
       <c r="I7" t="n">
-        <v>53.6</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="8">
@@ -6239,22 +9324,22 @@
         <v>166</v>
       </c>
       <c r="D8" t="n">
-        <v>2191</v>
+        <v>5606</v>
       </c>
       <c r="E8" t="n">
-        <v>1887</v>
+        <v>5047</v>
       </c>
       <c r="F8" t="n">
-        <v>2453</v>
+        <v>6101</v>
       </c>
       <c r="G8" t="n">
-        <v>25.9</v>
+        <v>89.8</v>
       </c>
       <c r="H8" t="n">
-        <v>21.5</v>
+        <v>74.2</v>
       </c>
       <c r="I8" t="n">
-        <v>29.9</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="9">
@@ -6268,22 +9353,22 @@
         <v>167</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="E9" t="n">
-        <v>-147</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>160</v>
+        <v>309</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>38.6</v>
       </c>
       <c r="H9" t="n">
-        <v>-16.4</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>27.1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -6297,22 +9382,22 @@
         <v>168</v>
       </c>
       <c r="D10" t="n">
-        <v>309</v>
+        <v>749</v>
       </c>
       <c r="E10" t="n">
-        <v>150</v>
+        <v>530</v>
       </c>
       <c r="F10" t="n">
-        <v>438</v>
+        <v>865</v>
       </c>
       <c r="G10" t="n">
-        <v>26.5</v>
+        <v>85.5</v>
       </c>
       <c r="H10" t="n">
-        <v>11.3</v>
+        <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>42.1</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="11">
@@ -6326,22 +9411,22 @@
         <v>169</v>
       </c>
       <c r="D11" t="n">
-        <v>528</v>
+        <v>1784</v>
       </c>
       <c r="E11" t="n">
-        <v>259</v>
+        <v>1551</v>
       </c>
       <c r="F11" t="n">
-        <v>745</v>
+        <v>1906</v>
       </c>
       <c r="G11" t="n">
-        <v>27.2</v>
+        <v>119.4</v>
       </c>
       <c r="H11" t="n">
-        <v>11.8</v>
+        <v>89.8</v>
       </c>
       <c r="I11" t="n">
-        <v>43.3</v>
+        <v>138.8</v>
       </c>
     </row>
     <row r="12">
@@ -6355,22 +9440,22 @@
         <v>170</v>
       </c>
       <c r="D12" t="n">
-        <v>998</v>
+        <v>2324</v>
       </c>
       <c r="E12" t="n">
-        <v>747</v>
+        <v>2038</v>
       </c>
       <c r="F12" t="n">
-        <v>1187</v>
+        <v>2501</v>
       </c>
       <c r="G12" t="n">
-        <v>30.9</v>
+        <v>98.9</v>
       </c>
       <c r="H12" t="n">
-        <v>21.5</v>
+        <v>77.3</v>
       </c>
       <c r="I12" t="n">
-        <v>39.1</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="13">
@@ -6384,22 +9469,22 @@
         <v>171</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>703</v>
       </c>
       <c r="E13" t="n">
-        <v>215</v>
+        <v>521</v>
       </c>
       <c r="F13" t="n">
-        <v>688</v>
+        <v>790</v>
       </c>
       <c r="G13" t="n">
-        <v>33</v>
+        <v>66.3</v>
       </c>
       <c r="H13" t="n">
-        <v>12.5</v>
+        <v>41.9</v>
       </c>
       <c r="I13" t="n">
-        <v>55.1</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="14">
@@ -6413,22 +9498,22 @@
         <v>172</v>
       </c>
       <c r="D14" t="n">
-        <v>3199</v>
+        <v>4036</v>
       </c>
       <c r="E14" t="n">
-        <v>2716</v>
+        <v>3550</v>
       </c>
       <c r="F14" t="n">
-        <v>3575</v>
+        <v>4453</v>
       </c>
       <c r="G14" t="n">
-        <v>35.3</v>
+        <v>60.9</v>
       </c>
       <c r="H14" t="n">
-        <v>28.4</v>
+        <v>49.9</v>
       </c>
       <c r="I14" t="n">
-        <v>41.1</v>
+        <v>71.7</v>
       </c>
     </row>
     <row r="15">
@@ -6442,22 +9527,22 @@
         <v>173</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="E15" t="n">
-        <v>-45</v>
+        <v>-22</v>
       </c>
       <c r="F15" t="n">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>28.9</v>
       </c>
       <c r="H15" t="n">
-        <v>-9.2</v>
+        <v>-5.6</v>
       </c>
       <c r="I15" t="n">
-        <v>20.8</v>
+        <v>69.1</v>
       </c>
     </row>
     <row r="16">
@@ -6471,22 +9556,22 @@
         <v>174</v>
       </c>
       <c r="D16" t="n">
-        <v>143</v>
+        <v>217</v>
       </c>
       <c r="E16" t="n">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="F16" t="n">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="G16" t="n">
-        <v>20.6</v>
+        <v>44.3</v>
       </c>
       <c r="H16" t="n">
-        <v>5.8</v>
+        <v>24.5</v>
       </c>
       <c r="I16" t="n">
-        <v>36.8</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="17">
@@ -6500,22 +9585,22 @@
         <v>175</v>
       </c>
       <c r="D17" t="n">
-        <v>321</v>
+        <v>710</v>
       </c>
       <c r="E17" t="n">
-        <v>68</v>
+        <v>647</v>
       </c>
       <c r="F17" t="n">
-        <v>505</v>
+        <v>721</v>
       </c>
       <c r="G17" t="n">
-        <v>24.2</v>
+        <v>72.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4.3</v>
+        <v>61.8</v>
       </c>
       <c r="I17" t="n">
-        <v>44.1</v>
+        <v>74.1</v>
       </c>
     </row>
     <row r="18">
@@ -6529,22 +9614,22 @@
         <v>176</v>
       </c>
       <c r="D18" t="n">
-        <v>1462</v>
+        <v>1764</v>
       </c>
       <c r="E18" t="n">
-        <v>943</v>
+        <v>1422</v>
       </c>
       <c r="F18" t="n">
-        <v>1887</v>
+        <v>2008</v>
       </c>
       <c r="G18" t="n">
-        <v>41.8</v>
+        <v>69.7</v>
       </c>
       <c r="H18" t="n">
-        <v>23.5</v>
+        <v>49.5</v>
       </c>
       <c r="I18" t="n">
-        <v>61.5</v>
+        <v>87.9</v>
       </c>
     </row>
     <row r="19">
@@ -6558,22 +9643,22 @@
         <v>177</v>
       </c>
       <c r="D19" t="n">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="E19" t="n">
-        <v>1173</v>
+        <v>1047</v>
       </c>
       <c r="F19" t="n">
-        <v>1467</v>
+        <v>1552</v>
       </c>
       <c r="G19" t="n">
-        <v>43.3</v>
+        <v>57.4</v>
       </c>
       <c r="H19" t="n">
-        <v>35.5</v>
+        <v>40.1</v>
       </c>
       <c r="I19" t="n">
-        <v>48.7</v>
+        <v>73.5</v>
       </c>
     </row>
   </sheetData>

--- a/output/italy.xlsx
+++ b/output/italy.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="01Mar-15May" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="15Feb-15May" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="1Feb-4Feb" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="5Feb-11Feb" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="12Feb-18Feb" sheetId="4" state="visible" r:id="rId4"/>
@@ -63,79 +63,79 @@
     <t xml:space="preserve">All ages</t>
   </si>
   <si>
-    <t xml:space="preserve">179929</t>
+    <t xml:space="preserve">208320</t>
   </si>
   <si>
     <t xml:space="preserve">Less than 60</t>
   </si>
   <si>
-    <t xml:space="preserve">9863</t>
+    <t xml:space="preserve">11719</t>
   </si>
   <si>
     <t xml:space="preserve">60-69</t>
   </si>
   <si>
-    <t xml:space="preserve">18702</t>
+    <t xml:space="preserve">21703</t>
   </si>
   <si>
     <t xml:space="preserve">70-79</t>
   </si>
   <si>
-    <t xml:space="preserve">35717</t>
+    <t xml:space="preserve">41198</t>
   </si>
   <si>
     <t xml:space="preserve">80-89</t>
   </si>
   <si>
-    <t xml:space="preserve">71415</t>
+    <t xml:space="preserve">82259</t>
   </si>
   <si>
     <t xml:space="preserve">90 and older</t>
   </si>
   <si>
-    <t xml:space="preserve">46768</t>
+    <t xml:space="preserve">54392</t>
   </si>
   <si>
     <t xml:space="preserve">Males</t>
   </si>
   <si>
-    <t xml:space="preserve">88108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14260</t>
+    <t xml:space="preserve">101568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16522</t>
   </si>
   <si>
     <t xml:space="preserve">Females</t>
   </si>
   <si>
-    <t xml:space="preserve">91824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32508</t>
+    <t xml:space="preserve">106754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37870</t>
   </si>
   <si>
     <t xml:space="preserve">7792</t>
@@ -1338,22 +1338,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>47245</v>
+        <v>47490</v>
       </c>
       <c r="E2" t="n">
-        <v>44147</v>
+        <v>43984</v>
       </c>
       <c r="F2" t="n">
-        <v>49868</v>
+        <v>50362</v>
       </c>
       <c r="G2" t="n">
-        <v>35.6</v>
+        <v>29.5</v>
       </c>
       <c r="H2" t="n">
-        <v>32.5</v>
+        <v>26.8</v>
       </c>
       <c r="I2" t="n">
-        <v>38.3</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="3">
@@ -1367,22 +1367,22 @@
         <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>1069</v>
+        <v>1088</v>
       </c>
       <c r="E3" t="n">
-        <v>-356</v>
+        <v>-426</v>
       </c>
       <c r="F3" t="n">
-        <v>2123</v>
+        <v>2209</v>
       </c>
       <c r="G3" t="n">
-        <v>12.2</v>
+        <v>10.2</v>
       </c>
       <c r="H3" t="n">
         <v>-3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>27.4</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="4">
@@ -1396,22 +1396,22 @@
         <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>4338</v>
+        <v>4386</v>
       </c>
       <c r="E4" t="n">
-        <v>3283</v>
+        <v>3286</v>
       </c>
       <c r="F4" t="n">
-        <v>5077</v>
+        <v>5157</v>
       </c>
       <c r="G4" t="n">
-        <v>30.2</v>
+        <v>25.3</v>
       </c>
       <c r="H4" t="n">
-        <v>21.3</v>
+        <v>17.8</v>
       </c>
       <c r="I4" t="n">
-        <v>37.3</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="5">
@@ -1425,22 +1425,22 @@
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>10522</v>
+        <v>10614</v>
       </c>
       <c r="E5" t="n">
-        <v>8215</v>
+        <v>8256</v>
       </c>
       <c r="F5" t="n">
-        <v>12369</v>
+        <v>12524</v>
       </c>
       <c r="G5" t="n">
-        <v>41.8</v>
+        <v>34.7</v>
       </c>
       <c r="H5" t="n">
-        <v>29.9</v>
+        <v>25.1</v>
       </c>
       <c r="I5" t="n">
-        <v>53</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="6">
@@ -1454,22 +1454,22 @@
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>20584</v>
+        <v>20674</v>
       </c>
       <c r="E6" t="n">
-        <v>19264</v>
+        <v>19377</v>
       </c>
       <c r="F6" t="n">
-        <v>21328</v>
+        <v>21387</v>
       </c>
       <c r="G6" t="n">
-        <v>40.5</v>
+        <v>33.6</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9</v>
+        <v>30.8</v>
       </c>
       <c r="I6" t="n">
-        <v>42.6</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="7">
@@ -1483,22 +1483,22 @@
         <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>12075</v>
+        <v>12114</v>
       </c>
       <c r="E7" t="n">
-        <v>11006</v>
+        <v>10877</v>
       </c>
       <c r="F7" t="n">
-        <v>12699</v>
+        <v>12858</v>
       </c>
       <c r="G7" t="n">
-        <v>34.8</v>
+        <v>28.7</v>
       </c>
       <c r="H7" t="n">
-        <v>30.8</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>37.3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -1512,22 +1512,22 @@
         <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>24517</v>
+        <v>24655</v>
       </c>
       <c r="E8" t="n">
-        <v>22566</v>
+        <v>22604</v>
       </c>
       <c r="F8" t="n">
-        <v>25922</v>
+        <v>26215</v>
       </c>
       <c r="G8" t="n">
-        <v>38.6</v>
+        <v>32.1</v>
       </c>
       <c r="H8" t="n">
-        <v>34.4</v>
+        <v>28.6</v>
       </c>
       <c r="I8" t="n">
-        <v>41.7</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="9">
@@ -1541,22 +1541,22 @@
         <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>884</v>
+        <v>935</v>
       </c>
       <c r="E9" t="n">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F9" t="n">
-        <v>1267</v>
+        <v>1342</v>
       </c>
       <c r="G9" t="n">
-        <v>16.4</v>
+        <v>14.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>25.2</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="10">
@@ -1570,22 +1570,22 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>3439</v>
+        <v>3505</v>
       </c>
       <c r="E10" t="n">
-        <v>2621</v>
+        <v>2646</v>
       </c>
       <c r="F10" t="n">
-        <v>3909</v>
+        <v>4006</v>
       </c>
       <c r="G10" t="n">
-        <v>38.6</v>
+        <v>32.7</v>
       </c>
       <c r="H10" t="n">
-        <v>26.9</v>
+        <v>22.8</v>
       </c>
       <c r="I10" t="n">
-        <v>46.3</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="11">
@@ -1599,22 +1599,22 @@
         <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>7173</v>
+        <v>7219</v>
       </c>
       <c r="E11" t="n">
-        <v>5849</v>
+        <v>5646</v>
       </c>
       <c r="F11" t="n">
-        <v>8161</v>
+        <v>8364</v>
       </c>
       <c r="G11" t="n">
-        <v>48.2</v>
+        <v>39.9</v>
       </c>
       <c r="H11" t="n">
-        <v>36.1</v>
+        <v>28.7</v>
       </c>
       <c r="I11" t="n">
-        <v>58.7</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="12">
@@ -1628,22 +1628,22 @@
         <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>10754</v>
+        <v>10855</v>
       </c>
       <c r="E12" t="n">
-        <v>9368</v>
+        <v>9410</v>
       </c>
       <c r="F12" t="n">
-        <v>11624</v>
+        <v>11716</v>
       </c>
       <c r="G12" t="n">
-        <v>44.4</v>
+        <v>37.1</v>
       </c>
       <c r="H12" t="n">
-        <v>36.6</v>
+        <v>30.6</v>
       </c>
       <c r="I12" t="n">
-        <v>49.8</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="13">
@@ -1657,22 +1657,22 @@
         <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="E13" t="n">
-        <v>2883</v>
+        <v>2849</v>
       </c>
       <c r="F13" t="n">
-        <v>4092</v>
+        <v>4055</v>
       </c>
       <c r="G13" t="n">
-        <v>34.1</v>
+        <v>28.1</v>
       </c>
       <c r="H13" t="n">
-        <v>25.3</v>
+        <v>20.8</v>
       </c>
       <c r="I13" t="n">
-        <v>40.2</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="14">
@@ -1686,22 +1686,22 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>23001</v>
+        <v>23125</v>
       </c>
       <c r="E14" t="n">
-        <v>21044</v>
+        <v>20997</v>
       </c>
       <c r="F14" t="n">
-        <v>24401</v>
+        <v>24609</v>
       </c>
       <c r="G14" t="n">
-        <v>33.4</v>
+        <v>27.7</v>
       </c>
       <c r="H14" t="n">
-        <v>29.7</v>
+        <v>24.5</v>
       </c>
       <c r="I14" t="n">
-        <v>36.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -1715,22 +1715,22 @@
         <v>31</v>
       </c>
       <c r="D15" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="E15" t="n">
-        <v>-193</v>
+        <v>-242</v>
       </c>
       <c r="F15" t="n">
-        <v>852</v>
+        <v>882</v>
       </c>
       <c r="G15" t="n">
-        <v>13.6</v>
+        <v>11.3</v>
       </c>
       <c r="H15" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="I15" t="n">
-        <v>31.3</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="16">
@@ -1744,22 +1744,22 @@
         <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>1129</v>
+        <v>1154</v>
       </c>
       <c r="E16" t="n">
-        <v>713</v>
+        <v>739</v>
       </c>
       <c r="F16" t="n">
-        <v>1364</v>
+        <v>1388</v>
       </c>
       <c r="G16" t="n">
-        <v>21.6</v>
+        <v>18.3</v>
       </c>
       <c r="H16" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>27.3</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="17">
@@ -1773,22 +1773,22 @@
         <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>3583</v>
+        <v>3676</v>
       </c>
       <c r="E17" t="n">
-        <v>2363</v>
+        <v>2399</v>
       </c>
       <c r="F17" t="n">
-        <v>4319</v>
+        <v>4438</v>
       </c>
       <c r="G17" t="n">
-        <v>35.6</v>
+        <v>30.1</v>
       </c>
       <c r="H17" t="n">
-        <v>20.9</v>
+        <v>17.8</v>
       </c>
       <c r="I17" t="n">
-        <v>46.3</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="18">
@@ -1802,22 +1802,22 @@
         <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>10077</v>
+        <v>10090</v>
       </c>
       <c r="E18" t="n">
-        <v>9235</v>
+        <v>9181</v>
       </c>
       <c r="F18" t="n">
-        <v>10567</v>
+        <v>10629</v>
       </c>
       <c r="G18" t="n">
-        <v>38.2</v>
+        <v>31.5</v>
       </c>
       <c r="H18" t="n">
-        <v>33.9</v>
+        <v>27.9</v>
       </c>
       <c r="I18" t="n">
-        <v>40.8</v>
+        <v>33.7</v>
       </c>
     </row>
     <row r="19">
@@ -1831,22 +1831,22 @@
         <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>8717</v>
+        <v>8806</v>
       </c>
       <c r="E19" t="n">
-        <v>7721</v>
+        <v>7590</v>
       </c>
       <c r="F19" t="n">
-        <v>9275</v>
+        <v>9536</v>
       </c>
       <c r="G19" t="n">
-        <v>36.6</v>
+        <v>30.3</v>
       </c>
       <c r="H19" t="n">
-        <v>31.1</v>
+        <v>25.1</v>
       </c>
       <c r="I19" t="n">
-        <v>39.9</v>
+        <v>33.7</v>
       </c>
     </row>
   </sheetData>
